--- a/data/trans_camb/P34A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-3.885477407133658</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9.056902859114736</v>
+        <v>9.056902859114746</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.39621353670521</v>
@@ -664,7 +664,7 @@
         <v>1.797601788201098</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>13.07336456297158</v>
+        <v>13.0733645629716</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-19.44466763702774</v>
+        <v>-19.7051745169788</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.75895035828784</v>
+        <v>-12.7694776819807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6117990925460614</v>
+        <v>0.3941372571813871</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.744878520088686</v>
+        <v>-5.932399874904394</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.1953367691388089</v>
+        <v>-0.5656564195339517</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>8.706186116820007</v>
+        <v>9.531999735290411</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-10.81215296125806</v>
+        <v>-10.49444609639284</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.135833669466975</v>
+        <v>-4.327951967715673</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.58459899792569</v>
+        <v>7.725752824568945</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.300432722759544</v>
+        <v>-3.633553809178806</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.643812046951231</v>
+        <v>4.002597784879594</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.71983412556161</v>
+        <v>16.92396648322367</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.02884472910129</v>
+        <v>11.16507264782545</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.14636078254674</v>
+        <v>16.40396763099692</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>24.07229935618857</v>
+        <v>24.52351923022633</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7570187019690316</v>
+        <v>1.162598676106575</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.420493568919184</v>
+        <v>7.419179520837922</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>18.76984333486734</v>
+        <v>18.77670972573766</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1078641593522234</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.25142733076753</v>
+        <v>0.2514273307675304</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.07124671450810227</v>
@@ -769,7 +769,7 @@
         <v>0.05158369816857103</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3751512131832485</v>
+        <v>0.3751512131832488</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.479360463065746</v>
+        <v>-0.4841385877218883</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3191798981877331</v>
+        <v>-0.3132718601665948</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.01982041036214559</v>
+        <v>0.006951031888570809</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1748121246427499</v>
+        <v>-0.1623063928579979</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.008806983167492689</v>
+        <v>-0.01495710471639957</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2323022649115846</v>
+        <v>0.2517900710384736</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2776410528553547</v>
+        <v>-0.2780132302206159</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1096016902200903</v>
+        <v>-0.1135428167252486</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1999465589273619</v>
+        <v>0.2045038950399485</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1253258003132509</v>
+        <v>-0.1103652991487235</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1149768252754177</v>
+        <v>0.1219547334323972</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5301655813338912</v>
+        <v>0.5257990469334249</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3782674268245989</v>
+        <v>0.3825131619467462</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5489566680155781</v>
+        <v>0.567164986906045</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8271257392235332</v>
+        <v>0.8597927274393604</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02512175120822421</v>
+        <v>0.0358310934303854</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2356234055229015</v>
+        <v>0.2345939267849623</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5863419788115942</v>
+        <v>0.5860599432913062</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-4.70167764063405</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>8.288388015094823</v>
+        <v>8.288388015094833</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-17.30019289087267</v>
+        <v>-16.96652779627428</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.455202743436562</v>
+        <v>-9.583384532322164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.08015934745789044</v>
+        <v>-0.7281352834597467</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-14.43521042227077</v>
+        <v>-14.13473239165751</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-13.28136541337291</v>
+        <v>-12.72673889437445</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.098435773448732</v>
+        <v>3.924532647630793</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-13.95021005057045</v>
+        <v>-13.52132637353764</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-9.363096683972131</v>
+        <v>-8.73053144046807</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.923131719315662</v>
+        <v>3.872040099352293</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-5.681084214920036</v>
+        <v>-5.278033316799182</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.377428675886104</v>
+        <v>2.359446131756284</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.14425170547609</v>
+        <v>12.85991520196655</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.719214599560191</v>
+        <v>-1.891657270144969</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.2694267120421223</v>
+        <v>-0.1946475162699802</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.22855515654748</v>
+        <v>15.37560916761033</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-5.579789903925103</v>
+        <v>-5.108389854896346</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.7520124756659355</v>
+        <v>-0.3346875597185496</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.90682835533358</v>
+        <v>12.92374151758072</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.1239246435951761</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2184614959290658</v>
+        <v>0.2184614959290661</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4801807077690265</v>
+        <v>-0.4711467322956623</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2656987332013445</v>
+        <v>-0.2694415543492716</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0009496353776941799</v>
+        <v>-0.02373104502202114</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3093568833476343</v>
+        <v>-0.3105382345655002</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2810397192588902</v>
+        <v>-0.2706154328328524</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08931776472213057</v>
+        <v>0.08600197770563101</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3484190349777007</v>
+        <v>-0.3396417252276348</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2337069889931044</v>
+        <v>-0.2177158947730572</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.09505379747548459</v>
+        <v>0.09524715560686568</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.190417415942699</v>
+        <v>-0.1700405267380348</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.07804568216981313</v>
+        <v>0.07994343758319637</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4506967195312605</v>
+        <v>0.4325022992695809</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.04149435199846874</v>
+        <v>-0.04523805552526563</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.008041467780149735</v>
+        <v>0.002194758567209624</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.382534501781137</v>
+        <v>0.3836154066618477</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1546193909833172</v>
+        <v>-0.1434151146833707</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.01989370876124525</v>
+        <v>-0.01035397731248918</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3559964787757375</v>
+        <v>0.3594788566687525</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-3.444992571914169</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.4032826087477959</v>
+        <v>-0.403282608747807</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-22.06838960729578</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-30.85014901063233</v>
+        <v>-29.78056628850662</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-17.13352043312662</v>
+        <v>-17.17535972861717</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.39380638936403</v>
+        <v>-12.16036656564516</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-27.92560455870787</v>
+        <v>-27.76188030976406</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.67537221263715</v>
+        <v>-11.32299683067699</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.810226712141004</v>
+        <v>-7.221189035595272</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-26.87779765436542</v>
+        <v>-26.8735515959874</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-11.51889416721126</v>
+        <v>-12.01630047406407</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.256515633212111</v>
+        <v>-7.494270228320778</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-16.13601150874927</v>
+        <v>-16.30370185716121</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.116190097629393</v>
+        <v>-2.772493795750003</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.103014424008327</v>
+        <v>2.734597633565162</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-14.27129971168421</v>
+        <v>-13.68821392495054</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.494041670718929</v>
+        <v>4.13275437977155</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.641074953984679</v>
+        <v>6.827469524557594</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-17.28837431105698</v>
+        <v>-16.73326525458395</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.759069149216887</v>
+        <v>-1.814552625872767</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.955859935526837</v>
+        <v>2.753829483743602</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.0852232488875387</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.009976524889350502</v>
+        <v>-0.009976524889350776</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.5369173239591706</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.671054560580156</v>
+        <v>-0.6593419383340978</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3837415933427455</v>
+        <v>-0.377866070176155</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2714977607632212</v>
+        <v>-0.2627373204363664</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6317155783618968</v>
+        <v>-0.6229124573459174</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.267281245039979</v>
+        <v>-0.2544297368052778</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.155202054769363</v>
+        <v>-0.1595985687179979</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6149067834941085</v>
+        <v>-0.6181443941855171</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2688266146364537</v>
+        <v>-0.2765601614032119</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.166361383848608</v>
+        <v>-0.1680844821357991</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.4225479565033825</v>
+        <v>-0.4277871586014623</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.05586041398566173</v>
+        <v>-0.07049788362441391</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.07842503177212902</v>
+        <v>0.07389010703242264</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.3797854491807818</v>
+        <v>-0.369627050202121</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09695793832085381</v>
+        <v>0.1177005832663465</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1822021847589654</v>
+        <v>0.1889437576767271</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.4451007983954724</v>
+        <v>-0.4420970901831748</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.04658117156956686</v>
+        <v>-0.04859291266417703</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.07568833408465199</v>
+        <v>0.07455742212297368</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-6.947895884204025</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-2.955604981099929</v>
+        <v>-2.955604981099919</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-9.665134669092001</v>
@@ -1306,7 +1306,7 @@
         <v>-11.82544682173333</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.465830322914942</v>
+        <v>-3.465830322914948</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-17.48804356669941</v>
+        <v>-18.18540276436057</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-22.94991198368239</v>
+        <v>-24.1860868286662</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.65097365589918</v>
+        <v>-11.97024647136877</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-15.47989492221037</v>
+        <v>-14.7766177656296</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-14.54971392402347</v>
+        <v>-13.58126858615246</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.392263368270735</v>
+        <v>-8.953187231432763</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-14.42072717449169</v>
+        <v>-14.52781995411083</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-16.85081860900358</v>
+        <v>-16.85121400328282</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-9.400767320599801</v>
+        <v>-8.54894237255051</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-4.006793912062664</v>
+        <v>-4.236306329645044</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-9.962846542210002</v>
+        <v>-10.05593932900379</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.004580746498627</v>
+        <v>4.630852876852979</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.9702615051074673</v>
+        <v>-1.009919386343637</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.3264169797632879</v>
+        <v>-0.2762289687661257</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.185339586779755</v>
+        <v>3.803131955075815</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-4.531087845342399</v>
+        <v>-4.95706748325204</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-6.644617171498663</v>
+        <v>-7.283293565260809</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.14077514722078</v>
+        <v>1.758175122991554</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.1660707272045388</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.07064577200365671</v>
+        <v>-0.07064577200365645</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2400439948148028</v>
@@ -1411,7 +1411,7 @@
         <v>-0.293697666172877</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.08607761656164685</v>
+        <v>-0.08607761656164699</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4160672500084454</v>
+        <v>-0.4323994475034381</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5534750697109578</v>
+        <v>-0.5680216884391583</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3056520181048334</v>
+        <v>-0.290686154190813</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3410876315667504</v>
+        <v>-0.3336883394080286</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3115310877228773</v>
+        <v>-0.3053826769411709</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.207495606078166</v>
+        <v>-0.2017121656495869</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3393166085766359</v>
+        <v>-0.342213038876281</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3900633921587386</v>
+        <v>-0.3930685379805114</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2157700854430673</v>
+        <v>-0.2004064368047969</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1049401188615423</v>
+        <v>-0.123328694667449</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2803712544872934</v>
+        <v>-0.2955419544298618</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1099081081490323</v>
+        <v>0.131800311385841</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.02165502527111447</v>
+        <v>-0.02844951670473519</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.009110455969665995</v>
+        <v>-0.006685350093218404</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08469256730956505</v>
+        <v>0.09988034514833045</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1212911543828945</v>
+        <v>-0.1338114871178776</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.172375702333397</v>
+        <v>-0.1908293936837002</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.03031040052926211</v>
+        <v>0.04698636559049105</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-31.04579559106475</v>
+        <v>-30.68350041474842</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-24.60654204480874</v>
+        <v>-24.58101406665095</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-48.56180584833674</v>
+        <v>-48.75772031519728</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-39.59865678981153</v>
+        <v>-39.47345847615052</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-28.60768780525379</v>
+        <v>-28.74138080945656</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-61.70082049600658</v>
+        <v>-61.80863701484207</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-32.92502958921643</v>
+        <v>-32.18968846098119</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-24.32934710724683</v>
+        <v>-24.04345677889398</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-52.69656852990011</v>
+        <v>-53.18628506239025</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-12.4416820846386</v>
+        <v>-11.42522836226208</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-5.173871133651989</v>
+        <v>-5.5580195668953</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-33.16573790691763</v>
+        <v>-32.58639360407772</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-21.00312747759443</v>
+        <v>-19.46554461888703</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-10.96040763643594</v>
+        <v>-10.28482701225243</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-46.99356766804124</v>
+        <v>-47.05543593925506</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-19.02680052855165</v>
+        <v>-18.46930798002689</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-10.7907021577036</v>
+        <v>-10.23398149926117</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-42.26721630521305</v>
+        <v>-42.04980991519675</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.2942036929419841</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.804891368945018</v>
+        <v>-0.8048913689450181</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5775397847753638</v>
+        <v>-0.5696881953225318</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4533264157463549</v>
+        <v>-0.447496949307183</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8741829481361376</v>
+        <v>-0.873839125234287</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5520177719538126</v>
+        <v>-0.5577999208156286</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3921826237359142</v>
+        <v>-0.3979613006696952</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8436026264386373</v>
+        <v>-0.8455788156556328</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.52876978784232</v>
+        <v>-0.5221557322580257</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3887858276270809</v>
+        <v>-0.3845639754135586</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.8437318863246961</v>
+        <v>-0.8417429097525428</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2727056057829124</v>
+        <v>-0.2532210599046041</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1097846647713884</v>
+        <v>-0.1202333428567674</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.7264497680553806</v>
+        <v>-0.7328222821470057</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.3261728418780261</v>
+        <v>-0.3174825657903312</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1702632657395648</v>
+        <v>-0.1616133341461186</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.7437239814679586</v>
+        <v>-0.7445587863544587</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.3442251124281755</v>
+        <v>-0.3313593214824606</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1926141448990541</v>
+        <v>-0.1866736090843057</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.7581292476005219</v>
+        <v>-0.7597782051745839</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-3.498964286556711</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4.543000790515251</v>
+        <v>4.543000790515256</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-25.80247786684189</v>
@@ -1725,7 +1725,7 @@
         <v>-3.411851044081154</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-2.206858884010959</v>
+        <v>-2.206858884010971</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-24.74395573615774</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-30.7382300753953</v>
+        <v>-31.1618280924411</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-10.98376132898021</v>
+        <v>-11.97371017929385</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.080580974610116</v>
+        <v>-3.095864748573983</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-33.7166248254054</v>
+        <v>-32.42680785101584</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-11.24037856401085</v>
+        <v>-12.03151563592159</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-10.11417885436281</v>
+        <v>-9.490230344085191</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-29.95363635519177</v>
+        <v>-30.08082829318819</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-8.975069949545484</v>
+        <v>-9.422913017106008</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.225624362926599</v>
+        <v>-4.581785703577468</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-16.59034237244705</v>
+        <v>-16.28052215744852</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.848031074738499</v>
+        <v>4.89824753226434</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12.29782669993613</v>
+        <v>12.26924510666322</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-18.19482858146605</v>
+        <v>-18.02100598034593</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.315177709983924</v>
+        <v>5.057130694914951</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.034037818593256</v>
+        <v>5.832052299051838</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-19.82748121044133</v>
+        <v>-19.01568327779244</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.714632511264135</v>
+        <v>2.594480379088743</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.85945159800182</v>
+        <v>6.921834016194879</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.09243791793596047</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.1200199544391222</v>
+        <v>0.1200199544391224</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.5726074464828422</v>
@@ -1830,7 +1830,7 @@
         <v>-0.07571564731934978</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.04897451465098988</v>
+        <v>-0.04897451465099013</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.5961480527718217</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7288783105532162</v>
+        <v>-0.7335274781646905</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.263729202950557</v>
+        <v>-0.2865724747746503</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.09493843351425452</v>
+        <v>-0.07120711455603268</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.6804063376867849</v>
+        <v>-0.6764447602846018</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.231132872580631</v>
+        <v>-0.2459964135140682</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2049799938987122</v>
+        <v>-0.1946957314536886</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.6718236163824325</v>
+        <v>-0.6803909378038319</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2036929056539679</v>
+        <v>-0.2111278851713596</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.09619495178278441</v>
+        <v>-0.1011123903477825</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.4753993591198044</v>
+        <v>-0.4754755023443334</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1472482262635785</v>
+        <v>0.1476729482342966</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3704491909917383</v>
+        <v>0.3608351362552727</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.4409633633256935</v>
+        <v>-0.4433059066134492</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1350869389843666</v>
+        <v>0.1217602177909461</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1237568445984714</v>
+        <v>0.1469702290310908</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.502459639442347</v>
+        <v>-0.4953541892878777</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.07117112781525924</v>
+        <v>0.067439928997289</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1778547902169358</v>
+        <v>0.1799580304475616</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>0.2836225684692883</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-5.138648043915928</v>
+        <v>-5.138648043915939</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-22.2615084125655</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-29.35619402944931</v>
+        <v>-29.59697774566564</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-10.331091755547</v>
+        <v>-10.44934131224864</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-21.29435275635534</v>
+        <v>-21.78034999545842</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-26.57883238803788</v>
+        <v>-25.92623098877511</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-5.343895003907976</v>
+        <v>-5.31567778487968</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-11.09033865078075</v>
+        <v>-10.10870587038612</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-26.05668320293019</v>
+        <v>-25.84021772377555</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-6.253234424408495</v>
+        <v>-5.972117179783032</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-13.8858049571699</v>
+        <v>-14.19581964861304</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-18.57598004243518</v>
+        <v>-18.93074014591927</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.8619104201865676</v>
+        <v>1.22117792825122</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-9.906952006340793</v>
+        <v>-9.795408254496305</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-15.28842699852152</v>
+        <v>-15.45943414233835</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.831061058228626</v>
+        <v>5.699975662826881</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.03791597439457174</v>
+        <v>0.2105923901229971</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-18.71621354732063</v>
+        <v>-18.71934838265765</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.642031658548582</v>
+        <v>2.000043439406404</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-6.714818027523048</v>
+        <v>-6.531540334630377</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.006136383257718125</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.1111784368718393</v>
+        <v>-0.1111784368718395</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.489193003400634</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6194636806218341</v>
+        <v>-0.6190312938919524</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2167443742017975</v>
+        <v>-0.2181501201343709</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4506321556140421</v>
+        <v>-0.450057006915582</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.5325863336644884</v>
+        <v>-0.5294913825983462</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1113592312652717</v>
+        <v>-0.106222599429284</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2243304095705293</v>
+        <v>-0.206591571150972</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.5491820280850926</v>
+        <v>-0.5462816053358543</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1305077088654907</v>
+        <v>-0.1269412836009788</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2940700262271187</v>
+        <v>-0.302763990329415</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.4447899175804149</v>
+        <v>-0.4477309903006153</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.02031625252857282</v>
+        <v>0.03099095123367113</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.2361330813044898</v>
+        <v>-0.2259262364117572</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.3444065409368718</v>
+        <v>-0.3508378679481123</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1333687272428265</v>
+        <v>0.1338327875574955</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.001436834298736786</v>
+        <v>0.004489823241836131</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.4249404796640081</v>
+        <v>-0.4272410954394981</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.03756992283055489</v>
+        <v>0.04614434553757773</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.1547809895309056</v>
+        <v>-0.1508512433440312</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-2.947974720924618</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-16.30155316870964</v>
+        <v>-16.30155316870963</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-17.80074561472752</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-25.95746072844396</v>
+        <v>-25.78659433239376</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-12.54819607251516</v>
+        <v>-12.02211073825709</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-19.96526772534983</v>
+        <v>-19.6730164372108</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-19.79474587475483</v>
+        <v>-20.51138004234627</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-8.390891540493312</v>
+        <v>-8.276144402537462</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-21.25891356019796</v>
+        <v>-21.05703631624533</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-21.68041634227336</v>
+        <v>-21.15167086146098</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-8.571587386539038</v>
+        <v>-8.482261830800352</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-18.97360871864404</v>
+        <v>-18.82109336997209</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-16.06130169666974</v>
+        <v>-15.45297157389133</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-2.389671988643174</v>
+        <v>-2.498551548652552</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-9.847888479324112</v>
+        <v>-9.989282402268659</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-9.752749265790456</v>
+        <v>-9.787098055856378</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.003042662094074</v>
+        <v>2.2998699464158</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-11.35123303820227</v>
+        <v>-11.7182955246259</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-14.38956086033347</v>
+        <v>-13.84763306808565</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.340175584108018</v>
+        <v>-1.253093366303278</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-12.12583864982413</v>
+        <v>-12.25957214632266</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.15372528206156</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.330702645198785</v>
+        <v>-0.3307026451987852</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.2901213144246649</v>
@@ -2258,7 +2258,7 @@
         <v>-0.05712198869759583</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.3158701223748046</v>
+        <v>-0.3158701223748045</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.3671620923763554</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5374574044546522</v>
+        <v>-0.539973440442896</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2548614403419363</v>
+        <v>-0.2476506582853407</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4145271820007369</v>
+        <v>-0.4176848845552333</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3645128214710857</v>
+        <v>-0.3797612115534412</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1572766142813388</v>
+        <v>-0.1553017662622909</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3904719725940738</v>
+        <v>-0.3862830853524097</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.4259153071417619</v>
+        <v>-0.4205534234254811</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1714280052085938</v>
+        <v>-0.1680283880209048</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3764122665506167</v>
+        <v>-0.3746680148152997</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.3749600506311015</v>
+        <v>-0.3615367108621018</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.05042487747438319</v>
+        <v>-0.05348507955801195</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.2293142135318016</v>
+        <v>-0.2343713416719135</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.1995452785929491</v>
+        <v>-0.198969063821187</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.04054045374370087</v>
+        <v>0.04777436656560909</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.2309870795687512</v>
+        <v>-0.2404803638413825</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.3057279789079873</v>
+        <v>-0.2970507308794054</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.02951498798790043</v>
+        <v>-0.02676459517542798</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.2594968237874134</v>
+        <v>-0.2599717621205762</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>-3.409652960407306</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-5.639294308989967</v>
+        <v>-5.639294308989962</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-16.84408418786153</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-20.9419943613642</v>
+        <v>-21.15901332802479</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-9.60301725318574</v>
+        <v>-9.699636640427723</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-10.16962206976789</v>
+        <v>-10.43565384418165</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-17.51523048721673</v>
+        <v>-17.49326860216723</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-5.821628941759435</v>
+        <v>-5.660233696260553</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-7.798879060714069</v>
+        <v>-7.842756949741046</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-18.40544437997948</v>
+        <v>-18.32512272836773</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-6.934593139825039</v>
+        <v>-6.949035217280707</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-8.375228209178099</v>
+        <v>-8.320634043349608</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-16.28614109036619</v>
+        <v>-16.335204737496</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-4.780172215190794</v>
+        <v>-4.766900509271374</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-5.24700093501622</v>
+        <v>-5.257368387316737</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-12.88536684283276</v>
+        <v>-12.78536657349687</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-1.299349344059971</v>
+        <v>-0.9983932286108425</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-3.496012904351189</v>
+        <v>-3.335849081865454</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-14.98504841729918</v>
+        <v>-15.20986914218006</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-3.483415542875572</v>
+        <v>-3.518517752197218</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-5.044053264814108</v>
+        <v>-4.861831649496712</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>-0.07390826214194385</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.122238376434244</v>
+        <v>-0.1222383764342439</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.3860281821563634</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.4942837824164727</v>
+        <v>-0.5005622591755939</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2289384095145013</v>
+        <v>-0.2291204683620447</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2408555332826715</v>
+        <v>-0.2457921996304469</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.3709011812937699</v>
+        <v>-0.3692030131277695</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.1244152053723688</v>
+        <v>-0.1207261523107368</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.1637154050937684</v>
+        <v>-0.1659646596913011</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.4165221770949026</v>
+        <v>-0.4142084594594136</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.1571771330699306</v>
+        <v>-0.1561068063979617</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.1877144802033595</v>
+        <v>-0.1871186480066073</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.4096108393671844</v>
+        <v>-0.4089771217956359</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.1222697402361784</v>
+        <v>-0.119418529676131</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.1320724628960893</v>
+        <v>-0.1325765830409615</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.2865790685290369</v>
+        <v>-0.2832795041140725</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.03049798577336665</v>
+        <v>-0.02229076821246182</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.07592215446124796</v>
+        <v>-0.07454149774419581</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.3532857467376269</v>
+        <v>-0.354686182246191</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.08209211626499836</v>
+        <v>-0.08322637311307829</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.1172468313778424</v>
+        <v>-0.1150185852009327</v>
       </c>
     </row>
     <row r="58">
